--- a/uploads/Testing.xlsx
+++ b/uploads/Testing.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t xml:space="preserve">lrn</t>
   </si>
   <si>
-    <t xml:space="preserve">firstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middleName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastName</t>
+    <t xml:space="preserve">fullName</t>
   </si>
   <si>
     <t xml:space="preserve">gradeLevel</t>
@@ -43,49 +37,28 @@
     <t xml:space="preserve">Abdul</t>
   </si>
   <si>
-    <t xml:space="preserve">Salani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kribek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section B</t>
   </si>
   <si>
     <t xml:space="preserve">Clementine</t>
   </si>
   <si>
-    <t xml:space="preserve">Roses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secion Y</t>
   </si>
   <si>
     <t xml:space="preserve">Bill</t>
   </si>
   <si>
-    <t xml:space="preserve">Gates</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section W</t>
   </si>
   <si>
     <t xml:space="preserve">Steve</t>
   </si>
   <si>
-    <t xml:space="preserve">Jobs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section A</t>
   </si>
   <si>
     <t xml:space="preserve">Linus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tips</t>
   </si>
   <si>
     <t xml:space="preserve">Section C</t>
@@ -185,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,31 +183,19 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>106167030444</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,16 +203,13 @@
         <v>103243766545</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,16 +217,13 @@
         <v>106672080991</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,36 +231,209 @@
         <v>113344505123</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>101010111001</v>
+        <v>108327392163</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>119329323003</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>145327323922</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>177564264669</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>103213211651</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>132344665123</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>101665701001</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>113344990867</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>132326739001</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>113827008323</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>106567776651</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>104534367001</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>183276482643</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>137275574891</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Testing.xlsx
+++ b/uploads/Testing.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">lrn</t>
   </si>
   <si>
-    <t xml:space="preserve">fullName</t>
+    <t xml:space="preserve">firstName</t>
   </si>
   <si>
     <t xml:space="preserve">gradeLevel</t>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">Section C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section X</t>
   </si>
 </sst>
 </file>
@@ -143,12 +149,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -158,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,7 +198,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -206,7 +212,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>7</v>
@@ -220,7 +226,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>9</v>
@@ -234,7 +240,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>11</v>
@@ -242,7 +248,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>108327392163</v>
+        <v>101010111001</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>12</v>
@@ -256,184 +262,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>119329323003</v>
+        <v>100230203201</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>145327323922</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>177564264669</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>103213211651</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>132344665123</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>101665701001</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>113344990867</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>132326739001</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>113827008323</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>106567776651</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>104534367001</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>183276482643</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>137275574891</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Testing.xlsx
+++ b/uploads/Testing.xlsx
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/uploads/Testing.xlsx
+++ b/uploads/Testing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\vortex-dwyte-voting-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwyte\Projects\vdvs-backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F0BB4-A5FA-43DE-8C19-5600D6D85DA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>lrn</t>
   </si>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -403,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -599,6 +600,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>310982184212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/uploads/Testing.xlsx
+++ b/uploads/Testing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwyte\Projects\vdvs-backend\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\vortex-dwyte-voting-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F0BB4-A5FA-43DE-8C19-5600D6D85DA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>lrn</t>
   </si>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -404,11 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,20 +599,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>310982184212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/uploads/Testing.xlsx
+++ b/uploads/Testing.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>lrn</t>
   </si>
@@ -38,67 +38,321 @@
     <t>full Name</t>
   </si>
   <si>
-    <t>Jv Antonio D. Bengilo</t>
-  </si>
-  <si>
     <t>CPA</t>
   </si>
   <si>
-    <t>Xander Dwight E. Martinez</t>
-  </si>
-  <si>
-    <t>Jessa C. Mortel</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>Mary Rose A. Magdaraog</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Gene Austin F. Portades</t>
-  </si>
-  <si>
-    <t>Malunggay</t>
-  </si>
-  <si>
-    <t>Rachel Mae M. Salera</t>
-  </si>
-  <si>
-    <t>Sampaguita</t>
-  </si>
-  <si>
-    <t>Ahmille John G. Saludar</t>
-  </si>
-  <si>
-    <t>Jovin A. Cruz</t>
-  </si>
-  <si>
-    <t>Raymond T. Potenciando</t>
-  </si>
-  <si>
-    <t>Mary Grace M. Amar</t>
-  </si>
-  <si>
-    <t>Rowena A. Olasiman</t>
-  </si>
-  <si>
-    <t>Kc Angelo E. Rosas</t>
+    <t>108159060034</t>
+  </si>
+  <si>
+    <t>108159060066</t>
+  </si>
+  <si>
+    <t>107947060049</t>
+  </si>
+  <si>
+    <t>301222130210</t>
+  </si>
+  <si>
+    <t>164008060058</t>
+  </si>
+  <si>
+    <t>108166060084</t>
+  </si>
+  <si>
+    <t>108159060184</t>
+  </si>
+  <si>
+    <t>164008060090</t>
+  </si>
+  <si>
+    <t>108187060211</t>
+  </si>
+  <si>
+    <t>136913050067</t>
+  </si>
+  <si>
+    <t>104935060272</t>
+  </si>
+  <si>
+    <t>136594060169</t>
+  </si>
+  <si>
+    <t>164008060112</t>
+  </si>
+  <si>
+    <t>108187060250</t>
+  </si>
+  <si>
+    <t>108171060075</t>
+  </si>
+  <si>
+    <t>10795906098</t>
+  </si>
+  <si>
+    <t>108159060374</t>
+  </si>
+  <si>
+    <t>301781710276</t>
+  </si>
+  <si>
+    <t>108159060393</t>
+  </si>
+  <si>
+    <t>108165060219</t>
+  </si>
+  <si>
+    <t>108187060340</t>
+  </si>
+  <si>
+    <t>136784060348</t>
+  </si>
+  <si>
+    <t>307909140085</t>
+  </si>
+  <si>
+    <t>108159060448</t>
+  </si>
+  <si>
+    <t>301223130034</t>
+  </si>
+  <si>
+    <t>108159120125</t>
+  </si>
+  <si>
+    <t>Aragon, Mark Dela Cruz</t>
+  </si>
+  <si>
+    <t>Bengilo, Jv Antonio Delos Reyes</t>
+  </si>
+  <si>
+    <t>Cruz, Jovin Almoguera</t>
+  </si>
+  <si>
+    <t>David, Billy Ray del Carmen</t>
+  </si>
+  <si>
+    <t>Deleon Raevhen Saludadez</t>
+  </si>
+  <si>
+    <t>Eleserio,John Rafael Villote</t>
+  </si>
+  <si>
+    <t>Estabaya,Ranz Chucas</t>
+  </si>
+  <si>
+    <t>Inojales, Allen John Montes</t>
+  </si>
+  <si>
+    <t>Irog,Jerome Javier</t>
+  </si>
+  <si>
+    <t>Limpiado Jr.,Antonio</t>
+  </si>
+  <si>
+    <t>Manjares,Florenz Lago</t>
+  </si>
+  <si>
+    <t>Manugas,John Lloyd Jorilla</t>
+  </si>
+  <si>
+    <t>Marquez,Kent  Cuenca</t>
+  </si>
+  <si>
+    <t>Martinez, Xander Dwight Estrada</t>
+  </si>
+  <si>
+    <t>Mosquida,Carl Justine Galvez</t>
+  </si>
+  <si>
+    <t>Portades,Gene Austin</t>
+  </si>
+  <si>
+    <t>Potenciando, Raymond Taotao</t>
+  </si>
+  <si>
+    <t>Pulido,Romnell Naval</t>
+  </si>
+  <si>
+    <t>Respuesto, Neil John</t>
+  </si>
+  <si>
+    <t>Romero, John Mark Ogmar</t>
+  </si>
+  <si>
+    <t>Rosas, Kc Angelo Endraca</t>
+  </si>
+  <si>
+    <t>Saludar, Ahmille John Gascon</t>
+  </si>
+  <si>
+    <t>Sanluis, Vincent Jake Costillas</t>
+  </si>
+  <si>
+    <t>Tarala, Marnhel Duke Sherwin Obrero</t>
+  </si>
+  <si>
+    <t>Valdez, Jeronimo Geronimo</t>
+  </si>
+  <si>
+    <t>Villanueva Elly Gerald S.</t>
+  </si>
+  <si>
+    <t>108159060006</t>
+  </si>
+  <si>
+    <t>108159060026</t>
+  </si>
+  <si>
+    <t>114420060059</t>
+  </si>
+  <si>
+    <t>108159060089</t>
+  </si>
+  <si>
+    <t>136762060049</t>
+  </si>
+  <si>
+    <t>108166060072</t>
+  </si>
+  <si>
+    <t>107954060074</t>
+  </si>
+  <si>
+    <t>108159060217</t>
+  </si>
+  <si>
+    <t>164008060107</t>
+  </si>
+  <si>
+    <t>108166060120</t>
+  </si>
+  <si>
+    <t>164008060122</t>
+  </si>
+  <si>
+    <t>108159060332</t>
+  </si>
+  <si>
+    <t>108159060371</t>
+  </si>
+  <si>
+    <t>108159060376</t>
+  </si>
+  <si>
+    <t>121275060025</t>
+  </si>
+  <si>
+    <t>108161060158</t>
+  </si>
+  <si>
+    <t>108165060222</t>
+  </si>
+  <si>
+    <t>100909060029</t>
+  </si>
+  <si>
+    <t>108159060469</t>
+  </si>
+  <si>
+    <t>Advincula, Mariel Esquilon</t>
+  </si>
+  <si>
+    <t>Amar, Mary Grace Mabuan</t>
+  </si>
+  <si>
+    <t>Begino, Tricy Abiner</t>
+  </si>
+  <si>
+    <t>Briones,Rianna Marie Uy</t>
+  </si>
+  <si>
+    <t>De Jesus,Ma. Joselyn Dasig</t>
+  </si>
+  <si>
+    <t>De Jesus,Nica Andrea Donasco</t>
+  </si>
+  <si>
+    <r>
+      <t>Di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ñ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>o,Shandy Jhen Relevo</t>
+    </r>
+  </si>
+  <si>
+    <t>Gatela, Shanna Dynn Cloma</t>
+  </si>
+  <si>
+    <t>Magdaraog, Mary Rose Aco</t>
+  </si>
+  <si>
+    <t>Mendoza, Elaiza Mae Suchisa</t>
+  </si>
+  <si>
+    <t>Mortel, Jessa Cabarles</t>
+  </si>
+  <si>
+    <t>Olasiman, Rowena Ambos</t>
+  </si>
+  <si>
+    <t>Picao, Rhea Lynn Agapito</t>
+  </si>
+  <si>
+    <t>Pulido, Rona Fe Naval</t>
+  </si>
+  <si>
+    <t>Remedio,Glaiza Mae Bregania</t>
+  </si>
+  <si>
+    <t>Roxas, Laiya Rose Badayos</t>
+  </si>
+  <si>
+    <t>Salera,Rachel Mae Monahan</t>
+  </si>
+  <si>
+    <t>Ternate,Jan Claudia Nicolas</t>
+  </si>
+  <si>
+    <t>Valencia,Ana Mae Dizon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,9 +375,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,200 +666,800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="116.85546875" customWidth="1"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>108159060066</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>108187060250</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>164008060122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>164005060107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>10795906098</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>108165060222</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>136784060348</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1081887060340</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>107947060049</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>108159060374</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>108159060026</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>108159060332</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="3">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="3">
+        <v>12</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="3">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
